--- a/src/test/resources/EEG.xlsx
+++ b/src/test/resources/EEG.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>CA-Z3F6KL4E</t>
+  </si>
+  <si>
+    <t>CA-S79BAPKI</t>
+  </si>
+  <si>
+    <t>CA-LC955K91</t>
+  </si>
+  <si>
+    <t>CA-OO7NH0Z5</t>
+  </si>
+  <si>
+    <t>CA-HJ3IVSGI</t>
+  </si>
+  <si>
+    <t>CA-AUV5IQQD</t>
+  </si>
+  <si>
+    <t>CA-68SO66NI</t>
   </si>
 </sst>
 </file>
@@ -448,7 +466,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>

--- a/src/test/resources/EEG.xlsx
+++ b/src/test/resources/EEG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TrainingTestNG\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2992BD83-0E36-4FFC-8CB4-5B98994EB32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35948908-AF9B-4F79-B1C5-92087EF82542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="2430" windowWidth="21555" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -78,28 +78,10 @@
     <t>6TR7FG7RT65</t>
   </si>
   <si>
-    <t>CA-7IYSQX9P</t>
-  </si>
-  <si>
-    <t>CA-Z3F6KL4E</t>
-  </si>
-  <si>
-    <t>CA-S79BAPKI</t>
-  </si>
-  <si>
-    <t>CA-LC955K91</t>
-  </si>
-  <si>
-    <t>CA-OO7NH0Z5</t>
-  </si>
-  <si>
     <t>CA-HJ3IVSGI</t>
   </si>
   <si>
-    <t>CA-AUV5IQQD</t>
-  </si>
-  <si>
-    <t>CA-68SO66NI</t>
+    <t>CA-F4GHJJB7</t>
   </si>
 </sst>
 </file>
@@ -424,7 +406,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +448,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
